--- a/Cleaned/outputedited/editedslidetimedata.xlsx
+++ b/Cleaned/outputedited/editedslidetimedata.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="34060" windowHeight="23020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23920" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="editedslidetimedata.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="editedslidetimedata.csv (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
   <si>
     <t>participant</t>
   </si>
@@ -74,6 +75,21 @@
   <si>
     <t>low positive correlation</t>
   </si>
+  <si>
+    <t>Visalisation</t>
+  </si>
+  <si>
+    <t>Textual</t>
+  </si>
+  <si>
+    <t>Bullet Points</t>
+  </si>
+  <si>
+    <t>Photographic</t>
+  </si>
+  <si>
+    <t>correct results</t>
+  </si>
 </sst>
 </file>
 
@@ -104,12 +120,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,7 +143,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -173,11 +195,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -203,6 +234,10 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -228,6 +263,10 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -543,11 +582,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2098044376"/>
-        <c:axId val="2097651208"/>
+        <c:axId val="-2053485464"/>
+        <c:axId val="-2117731576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2098044376"/>
+        <c:axId val="-2053485464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -581,12 +620,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2097651208"/>
+        <c:crossAx val="-2117731576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2097651208"/>
+        <c:axId val="-2117731576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -622,10 +661,211 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2098044376"/>
+        <c:crossAx val="-2053485464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'editedslidetimedata.csv (2)'!$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'editedslidetimedata.csv (2)'!$K$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>2.890225113749615</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'editedslidetimedata.csv (2)'!$H$34:$K$34</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5.98343573907225</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.03040941605855</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.628944423257695</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.890225113749615</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'editedslidetimedata.csv (2)'!$H$32:$K$32</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Visalisation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Textual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bullet Points</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Photographic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'editedslidetimedata.csv (2)'!$H$33:$K$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17.91647987528571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.2302465986381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.90821541950261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.11550368480881</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2053185144"/>
+        <c:axId val="-2053748840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2053185144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2053748840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2053748840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (in seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2053185144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -948,11 +1188,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2056061352"/>
-        <c:axId val="-2055753752"/>
+        <c:axId val="-2118080824"/>
+        <c:axId val="-2090366792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2056061352"/>
+        <c:axId val="-2118080824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -986,12 +1226,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2055753752"/>
+        <c:crossAx val="-2090366792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2055753752"/>
+        <c:axId val="-2090366792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1027,7 +1267,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2056061352"/>
+        <c:crossAx val="-2118080824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
@@ -1353,11 +1593,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2062099048"/>
-        <c:axId val="-2056239640"/>
+        <c:axId val="-2117746216"/>
+        <c:axId val="2129451176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2062099048"/>
+        <c:axId val="-2117746216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1391,12 +1631,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2056239640"/>
+        <c:crossAx val="2129451176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2056239640"/>
+        <c:axId val="2129451176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1432,7 +1672,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2062099048"/>
+        <c:crossAx val="-2117746216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
@@ -1758,11 +1998,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2060422472"/>
-        <c:axId val="2100280088"/>
+        <c:axId val="2053672168"/>
+        <c:axId val="-2090527656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2060422472"/>
+        <c:axId val="2053672168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1796,12 +2036,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100280088"/>
+        <c:crossAx val="-2090527656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2100280088"/>
+        <c:axId val="-2090527656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1837,7 +2077,1180 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2060422472"/>
+        <c:crossAx val="2053672168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>editedslidetimedata.csv!$G$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>editedslidetimedata.csv!$K$61</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>2.890225113749615</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>editedslidetimedata.csv!$H$61:$K$61</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="4"/>
+                  <c:pt idx="0">
+                    <c:v>5.98343573907225</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>9.03040941605855</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3.628944423257695</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.890225113749615</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>editedslidetimedata.csv!$H$59:$K$59</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Visalisation</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Textual</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bullet Points</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Photographic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>editedslidetimedata.csv!$H$60:$K$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17.91647987528571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.2302465986381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.90821541950261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.11550368480881</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2144587448"/>
+        <c:axId val="2129717032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2144587448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2129717032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2129717032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (in seconds)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2144587448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'editedslidetimedata.csv (2)'!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10.2316666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.644</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.455</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.75875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.0325</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.76375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.2725</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.52375</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.422</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.51</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.0075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'editedslidetimedata.csv (2)'!$O$2:$O$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2096802312"/>
+        <c:axId val="-2096809736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2096802312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds Spent on Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> per Visualisation Stimulus </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2096809736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2096809736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Correct Answers</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2096802312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'editedslidetimedata.csv (2)'!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.79</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.12625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.2071428571</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.5133333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38.41875</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.385</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31.2575</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.18</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18.1175</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25.30375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'editedslidetimedata.csv (2)'!$O$2:$O$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2093760344"/>
+        <c:axId val="-2143139080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2093760344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds Spent on Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> per Textual Stimulus </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2143139080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2143139080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Correct Answers</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2093760344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'editedslidetimedata.csv (2)'!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>13.6225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.98</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.11375</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.16625</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.938</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.89375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.97</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12.135</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.392</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.81625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'editedslidetimedata.csv (2)'!$O$2:$O$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2145233144"/>
+        <c:axId val="-2145227512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2145233144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds Spent on Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> per Bullet Point Stimulus </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2145227512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2145227512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Correct Answers</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2145233144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1.0"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'editedslidetimedata.csv (2)'!$E$2:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>16.185</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.06666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.92125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.35625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.85375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.365</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11.438</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.4716666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.105</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.5185714286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.98333333333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'editedslidetimedata.csv (2)'!$O$2:$O$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2053259768"/>
+        <c:axId val="-2053792952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2053259768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Seconds Spent on Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> per Photographic Stimulus </a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2053792952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2053792952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Correct Answers</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2053259768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
@@ -1972,6 +3385,201 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>12992</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>101892</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>25692</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2302,10 +3910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O50"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3906,6 +5514,818 @@
     <row r="50" spans="6:15">
       <c r="O50" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="6:15">
+      <c r="H59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" t="s">
+        <v>20</v>
+      </c>
+      <c r="K59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="6:15">
+      <c r="G60" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60">
+        <v>17.91647987528571</v>
+      </c>
+      <c r="I60">
+        <v>21.230246598638097</v>
+      </c>
+      <c r="J60">
+        <v>17.908215419502614</v>
+      </c>
+      <c r="K60">
+        <v>13.115503684808809</v>
+      </c>
+    </row>
+    <row r="61" spans="6:15">
+      <c r="G61" t="s">
+        <v>7</v>
+      </c>
+      <c r="H61">
+        <f>11.9668714781445/2</f>
+        <v>5.9834357390722497</v>
+      </c>
+      <c r="I61">
+        <f>18.0608188321171/2</f>
+        <v>9.03040941605855</v>
+      </c>
+      <c r="J61">
+        <f>7.25788884651539/2</f>
+        <v>3.6289444232576948</v>
+      </c>
+      <c r="K61">
+        <f>5.78045022749923/2</f>
+        <v>2.8902251137496151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19:O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10.231666666700001</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>13.6225</v>
+      </c>
+      <c r="E2">
+        <v>16.184999999999999</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>5.6440000000000001</v>
+      </c>
+      <c r="C3">
+        <v>5.77</v>
+      </c>
+      <c r="D3">
+        <v>13.98</v>
+      </c>
+      <c r="E3">
+        <v>9.0666666666700007</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>20.454999999999998</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>37.770000000000003</v>
+      </c>
+      <c r="E4">
+        <v>23.696000000000002</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>25.007999999999999</v>
+      </c>
+      <c r="C5">
+        <v>42.79</v>
+      </c>
+      <c r="D5">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E5">
+        <v>22.921250000000001</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>14.758749999999999</v>
+      </c>
+      <c r="C6">
+        <v>27.126249999999999</v>
+      </c>
+      <c r="D6">
+        <v>18.11375</v>
+      </c>
+      <c r="E6">
+        <v>12.356249999999999</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>17.032499999999999</v>
+      </c>
+      <c r="C7">
+        <v>19.207142857099999</v>
+      </c>
+      <c r="D7">
+        <v>24.166250000000002</v>
+      </c>
+      <c r="E7">
+        <v>11.85375</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>10.63</v>
+      </c>
+      <c r="C8">
+        <v>19.5133333333</v>
+      </c>
+      <c r="D8">
+        <v>10.938000000000001</v>
+      </c>
+      <c r="E8">
+        <v>12.41</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>23.763750000000002</v>
+      </c>
+      <c r="C9">
+        <v>38.418750000000003</v>
+      </c>
+      <c r="D9">
+        <v>21.893750000000001</v>
+      </c>
+      <c r="E9">
+        <v>18.364999999999998</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>29.272500000000001</v>
+      </c>
+      <c r="C10">
+        <v>59.35</v>
+      </c>
+      <c r="D10">
+        <v>26.97</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>11.52375</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>12.135</v>
+      </c>
+      <c r="E11">
+        <v>11.438000000000001</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>15.21</v>
+      </c>
+      <c r="C12">
+        <v>35.384999999999998</v>
+      </c>
+      <c r="D12">
+        <v>26.17</v>
+      </c>
+      <c r="E12">
+        <v>14.471666666699999</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>10.422000000000001</v>
+      </c>
+      <c r="C13">
+        <v>31.2575</v>
+      </c>
+      <c r="D13">
+        <v>20.391999999999999</v>
+      </c>
+      <c r="E13">
+        <v>10.105</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>22.1</v>
+      </c>
+      <c r="C14">
+        <v>21.18</v>
+      </c>
+      <c r="D14">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E14">
+        <v>16.518571428600001</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15">
+        <v>33</v>
+      </c>
+      <c r="B15">
+        <v>6.51</v>
+      </c>
+      <c r="C15">
+        <v>18.1175</v>
+      </c>
+      <c r="D15">
+        <v>14.49</v>
+      </c>
+      <c r="E15">
+        <v>7.9833333333300001</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <v>14.0075</v>
+      </c>
+      <c r="C16">
+        <v>25.303750000000001</v>
+      </c>
+      <c r="D16">
+        <v>22.81625</v>
+      </c>
+      <c r="E16">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <f>MEDIAN(B2:B16)</f>
+        <v>14.758749999999999</v>
+      </c>
+      <c r="C17">
+        <f>MEDIAN(C2:C16)</f>
+        <v>21.18</v>
+      </c>
+      <c r="D17">
+        <f>MEDIAN(D2:D16)</f>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E17">
+        <f>MEDIAN(E2:E16)</f>
+        <v>12.356249999999999</v>
+      </c>
+      <c r="O17">
+        <f>AVERAGE(O2:O16)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE(B2:B16)</f>
+        <v>15.771294444446664</v>
+      </c>
+      <c r="C18">
+        <f>AVERAGE(C2:C16)</f>
+        <v>22.894615079359998</v>
+      </c>
+      <c r="D18">
+        <f>AVERAGE(D2:D16)</f>
+        <v>20.063833333333331</v>
+      </c>
+      <c r="E18">
+        <f>AVERAGE(E2:E16)</f>
+        <v>13.138032539686666</v>
+      </c>
+      <c r="O18">
+        <f>MEDIAN(O2:O16)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19">
+        <f>CORREL(B2:B16, G2:G16)</f>
+        <v>0.59260671802672749</v>
+      </c>
+      <c r="I19">
+        <f>CORREL(B2:B16, I2:I16)</f>
+        <v>0.14720077639863199</v>
+      </c>
+      <c r="K19">
+        <f>CORREL(B2:B16, K2:K16)</f>
+        <v>-0.13744312428513811</v>
+      </c>
+      <c r="M19">
+        <f>CORREL(B2:B16, M2:M16)</f>
+        <v>0.36174525449481049</v>
+      </c>
+      <c r="O19">
+        <f>CORREL(B2:B16, O2:O16)</f>
+        <v>0.49093610739607901</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <f>STDEV(B2:B16)</f>
+        <v>7.0286189631821285</v>
+      </c>
+      <c r="C20">
+        <f>STDEV(C2:C16)</f>
+        <v>17.179747861562699</v>
+      </c>
+      <c r="D20">
+        <f>STDEV(D2:D16)</f>
+        <v>7.0354685603089209</v>
+      </c>
+      <c r="E20">
+        <f>STDEV(E2:E16)</f>
+        <v>5.9728477784824276</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20">
+        <f>CORREL(C2:C16, G2:G16)</f>
+        <v>0.38501116384706791</v>
+      </c>
+      <c r="I20">
+        <f>CORREL(C2:C16, I2:I16)</f>
+        <v>0.49376272972896079</v>
+      </c>
+      <c r="K20">
+        <f>CORREL(C2:C16, K2:K16)</f>
+        <v>-0.15968533874661889</v>
+      </c>
+      <c r="M20">
+        <f>CORREL(C2:C16, M2:M16)</f>
+        <v>0.17987971475464179</v>
+      </c>
+      <c r="O20">
+        <f>CORREL(C2:C16, O2:O16)</f>
+        <v>0.44634471038934176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <f>CORREL(D2:D16, G2:G16)</f>
+        <v>0.34038777089446642</v>
+      </c>
+      <c r="I21">
+        <f>CORREL(D2:D16, I2:I16)</f>
+        <v>-5.2450317231198224E-2</v>
+      </c>
+      <c r="K21">
+        <f>CORREL(D2:D16, K2:K16)</f>
+        <v>8.9841674805252694E-2</v>
+      </c>
+      <c r="M21">
+        <f>CORREL(D2:D16, M2:M16)</f>
+        <v>0.41014971069080708</v>
+      </c>
+      <c r="O21">
+        <f>CORREL(D2:D16, O2:O16)</f>
+        <v>0.41146120240341277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="F22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <f>CORREL(E2:E16, G2:G16)</f>
+        <v>0.25125766569855373</v>
+      </c>
+      <c r="I22">
+        <f>CORREL(E2:E16, I2:I16)</f>
+        <v>-0.37192923600498912</v>
+      </c>
+      <c r="K22">
+        <f>CORREL(E2:E16, K2:K16)</f>
+        <v>0.30792971142962572</v>
+      </c>
+      <c r="M22">
+        <f>CORREL(E2:E16, M2:M16)</f>
+        <v>0.15773528486261457</v>
+      </c>
+      <c r="O22">
+        <f>CORREL(E2:E16, O2:O16)</f>
+        <v>0.20893191956710419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="O23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="7:11">
+      <c r="G33" t="s">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>17.91647987528571</v>
+      </c>
+      <c r="I33">
+        <v>21.230246598638097</v>
+      </c>
+      <c r="J33">
+        <v>17.908215419502614</v>
+      </c>
+      <c r="K33">
+        <v>13.115503684808809</v>
+      </c>
+    </row>
+    <row r="34" spans="7:11">
+      <c r="G34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34">
+        <f>11.9668714781445/2</f>
+        <v>5.9834357390722497</v>
+      </c>
+      <c r="I34">
+        <f>18.0608188321171/2</f>
+        <v>9.03040941605855</v>
+      </c>
+      <c r="J34">
+        <f>7.25788884651539/2</f>
+        <v>3.6289444232576948</v>
+      </c>
+      <c r="K34">
+        <f>5.78045022749923/2</f>
+        <v>2.8902251137496151</v>
       </c>
     </row>
   </sheetData>
